--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3005D58-8C1B-4C24-A485-724ADD31E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D17C6-1E49-4C60-8FF3-6B299C447326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ТОО Казыкурт" sheetId="7" r:id="rId1"/>
+    <sheet name="Batys" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ЗаголовкиСтолбцов" localSheetId="0">'ТОО Казыкурт'!$A$8:$O$9</definedName>
-    <definedName name="ЗаголовокОтчета" localSheetId="0">'ТОО Казыкурт'!$C$2:$L$6</definedName>
-    <definedName name="Подписи" localSheetId="0">'ТОО Казыкурт'!$C$19:$L$1291</definedName>
-    <definedName name="СтрокаИтогоВЦ" localSheetId="0">'ТОО Казыкурт'!$M$14:$O$14</definedName>
-    <definedName name="СтрокаИтогоСумма" localSheetId="0">'ТОО Казыкурт'!$C$28:$P$28</definedName>
-    <definedName name="СтрокаПериода" localSheetId="0">'ТОО Казыкурт'!$B$12</definedName>
-    <definedName name="СтрокаТаблицыДанных" localSheetId="0">'ТОО Казыкурт'!$A$10:$V$10</definedName>
-    <definedName name="СтрокаУслуги" localSheetId="0">'ТОО Казыкурт'!$M$16:$P$16</definedName>
+    <definedName name="ЗаголовкиСтолбцов" localSheetId="0">Batys!$A$8:$O$9</definedName>
+    <definedName name="ЗаголовокОтчета" localSheetId="0">Batys!$C$2:$L$6</definedName>
+    <definedName name="Подписи" localSheetId="0">Batys!$C$19:$L$1291</definedName>
+    <definedName name="СтрокаИтогоВЦ" localSheetId="0">Batys!$M$14:$O$14</definedName>
+    <definedName name="СтрокаИтогоСумма" localSheetId="0">Batys!$C$28:$P$28</definedName>
+    <definedName name="СтрокаПериода" localSheetId="0">Batys!$B$12</definedName>
+    <definedName name="СтрокаТаблицыДанных" localSheetId="0">Batys!$A$10:$V$10</definedName>
+    <definedName name="СтрокаУслуги" localSheetId="0">Batys!$M$16:$P$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Дата</t>
   </si>
@@ -56,9 +56,6 @@
     <t>8-и</t>
   </si>
   <si>
-    <t>Гос</t>
-  </si>
-  <si>
     <t>Вид
 прод.</t>
   </si>
@@ -79,72 +76,113 @@
     <t>ТОР</t>
   </si>
   <si>
+    <t>РЕЕСТР</t>
+  </si>
+  <si>
+    <t>арендованных и  собственных вагон-цистерн компании</t>
+  </si>
+  <si>
+    <t>проходящих осмотр котлов вагонов/цистерн и горячую обработку, а также ТОР</t>
+  </si>
+  <si>
+    <t>ИТОГО СУММА</t>
+  </si>
+  <si>
+    <t>Утверждаю</t>
+  </si>
+  <si>
+    <t>Главный инженер</t>
+  </si>
+  <si>
+    <t>ТОО «Batys Petroleum»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Кобелдесов  Б.А.</t>
+  </si>
+  <si>
+    <t>______________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «31»  июля  2020 г.</t>
+  </si>
+  <si>
+    <t>в ТОО "  Batys Petroleum  " с 01.07.2020 г. по 31.07.2020 г.</t>
+  </si>
+  <si>
+    <t>Дата/Время ТОР</t>
+  </si>
+  <si>
+    <t>№
+акта</t>
+  </si>
+  <si>
     <t>Сменный
-бригадир</t>
-  </si>
-  <si>
-    <t>РЕЕСТР</t>
-  </si>
-  <si>
-    <t>арендованных и  собственных вагон-цистерн компании</t>
-  </si>
-  <si>
-    <t>проходящих осмотр котлов вагонов/цистерн и горячую обработку, а также ТОР</t>
-  </si>
-  <si>
-    <t>ИТОГО СУММА</t>
-  </si>
-  <si>
-    <t>Ст. мастер</t>
-  </si>
-  <si>
-    <t>Техник по учету в/ц</t>
-  </si>
-  <si>
-    <t>Представитель</t>
-  </si>
-  <si>
-    <t>Собственник</t>
-  </si>
-  <si>
-    <t>всех</t>
-  </si>
-  <si>
-    <t>в ТОО Казыгурт-Юг c 01.01.2020 по 31.01.2020</t>
-  </si>
-  <si>
-    <t>Стоимость услуги</t>
-  </si>
-  <si>
-    <t>Стоимость ТОР</t>
-  </si>
-  <si>
-    <t>Абильбашарова С.Ж.</t>
-  </si>
-  <si>
-    <t>Ибрагим Р.С.</t>
-  </si>
-  <si>
-    <t>ДР,КР с наружкой</t>
-  </si>
-  <si>
-    <t>ДР,КР без наружки</t>
-  </si>
-  <si>
-    <t>№ акта</t>
-  </si>
-  <si>
-    <t>Замена трафарета</t>
-  </si>
-  <si>
-    <t>Наружняя очитска котлов</t>
+мастер</t>
+  </si>
+  <si>
+    <t>Прибытие</t>
+  </si>
+  <si>
+    <t>Дата год-сти п/налив</t>
+  </si>
+  <si>
+    <t>Дата уборки с ППС</t>
+  </si>
+  <si>
+    <t>Дата ВУ-19 (ГО)</t>
+  </si>
+  <si>
+    <t>Расценка</t>
+  </si>
+  <si>
+    <t>Ст-ть
+ТОР</t>
+  </si>
+  <si>
+    <t>для Др,КР</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>окончание</t>
+  </si>
+  <si>
+    <t>Нач. обр-ки</t>
+  </si>
+  <si>
+    <t>Оконч. обр-ки</t>
+  </si>
+  <si>
+    <t>Оператор по учету вагонов:</t>
+  </si>
+  <si>
+    <t>Мажитов О.</t>
+  </si>
+  <si>
+    <t>Молдагалиев А.</t>
+  </si>
+  <si>
+    <t>Чулакова А.</t>
+  </si>
+  <si>
+    <t>Нурсапина Ж.</t>
+  </si>
+  <si>
+    <t>Джармагамбетова Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +190,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -175,17 +206,54 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Cyr"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Cyr"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -197,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,78 +341,192 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{39DA8700-7BAD-47DF-9F13-6457F6EA7B70}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{2ACFC554-4C70-4606-B578-15636287F265}"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:V28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,38 +885,70 @@
     <col min="17" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -750,17 +964,21 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -776,17 +994,21 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S4" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -802,17 +1024,21 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -828,241 +1054,498 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="S6" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D14" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="15" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="34"/>
+      <c r="X14" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="20" t="s">
+      <c r="J15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="P28" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="24"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
+  <mergeCells count="28">
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="S4:Z4"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="F10:P10"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D17C6-1E49-4C60-8FF3-6B299C447326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C762C0D-D55B-4A77-B555-766BE8E99705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Дата</t>
   </si>
@@ -152,24 +152,6 @@
   </si>
   <si>
     <t>Оконч. обр-ки</t>
-  </si>
-  <si>
-    <t>Оператор по учету вагонов:</t>
-  </si>
-  <si>
-    <t>Мажитов О.</t>
-  </si>
-  <si>
-    <t>Молдагалиев А.</t>
-  </si>
-  <si>
-    <t>Чулакова А.</t>
-  </si>
-  <si>
-    <t>Нурсапина Ж.</t>
-  </si>
-  <si>
-    <t>Джармагамбетова Д.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -482,6 +464,30 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -494,32 +500,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -865,7 +847,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:P10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,15 +887,15 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -934,16 +916,16 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -964,16 +946,16 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -994,16 +976,16 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -1024,16 +1006,16 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1054,16 +1036,16 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1099,19 +1081,19 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="3"/>
@@ -1129,19 +1111,19 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="3"/>
@@ -1159,19 +1141,19 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
+      <c r="F10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="3"/>
@@ -1189,19 +1171,19 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="3"/>
@@ -1219,19 +1201,19 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="3"/>
@@ -1272,69 +1254,69 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="37" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="36" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39" t="s">
+      <c r="N14" s="45"/>
+      <c r="O14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39" t="s">
+      <c r="S14" s="45"/>
+      <c r="T14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="33" t="s">
+      <c r="V14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="W14" s="34"/>
-      <c r="X14" s="37" t="s">
+      <c r="W14" s="42"/>
+      <c r="X14" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="6" t="s">
@@ -1344,8 +1326,8 @@
         <v>5</v>
       </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="6" t="s">
         <v>9</v>
       </c>
@@ -1362,19 +1344,19 @@
       <c r="N15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
       <c r="X15" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1456,18 +1438,12 @@
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -1475,12 +1451,8 @@
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -1488,12 +1460,8 @@
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>41</v>
-      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -1501,12 +1469,8 @@
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="3"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -1518,16 +1482,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="S4:Z4"/>
-    <mergeCell ref="S5:Z5"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="F10:P10"/>
-    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
     <mergeCell ref="F12:P12"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -1540,12 +1500,16 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="F10:P10"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="S4:Z4"/>
+    <mergeCell ref="S5:Z5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
